--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
   <si>
     <t>meters</t>
   </si>
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,6 +184,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +498,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -786,8 +791,8 @@
       <c r="B9" s="4">
         <v>39927.577033310183</v>
       </c>
-      <c r="C9" s="5">
-        <v>-1.4</v>
+      <c r="C9" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="D9" s="5">
         <v>-3.4</v>

--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>meters</t>
   </si>
@@ -74,6 +74,24 @@
   </si>
   <si>
     <t>Character</t>
+  </si>
+  <si>
+    <t>%5.1f</t>
+  </si>
+  <si>
+    <t>%.3f</t>
+  </si>
+  <si>
+    <t>%.2f</t>
+  </si>
+  <si>
+    <t>%.2e</t>
+  </si>
+  <si>
+    <t>%d</t>
+  </si>
+  <si>
+    <t>%s</t>
   </si>
 </sst>
 </file>
@@ -499,7 +517,7 @@
   <dimension ref="A2:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,9 +573,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -587,32 +603,36 @@
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16">

--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -172,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,6 +204,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,11 +520,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O58"/>
+  <dimension ref="A2:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1314,72 +1318,52 @@
       <c r="A21" s="16">
         <v>17</v>
       </c>
-      <c r="B21" s="4">
-        <v>39927.864848877318</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="D21" s="5">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="E21" s="6">
-        <v>2.2867000000000002</v>
-      </c>
-      <c r="F21" s="7">
-        <v>999.63</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H21" s="9">
-        <v>0.64200000000000002</v>
-      </c>
-      <c r="I21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="10">
-        <v>6</v>
-      </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="12">
-        <v>39680</v>
-      </c>
-      <c r="N21" s="13">
-        <v>0.49965277777777778</v>
-      </c>
-      <c r="O21" s="11"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>18</v>
       </c>
       <c r="B22" s="4">
-        <v>39927.902167129629</v>
+        <v>39927.864848877318</v>
       </c>
       <c r="C22" s="5">
-        <v>-8.8000000000000007</v>
+        <v>0.8</v>
       </c>
       <c r="D22" s="5">
-        <v>-1</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="E22" s="6">
-        <v>2.3391999999999999</v>
+        <v>2.2867000000000002</v>
       </c>
       <c r="F22" s="7">
-        <v>999.66</v>
+        <v>999.63</v>
       </c>
       <c r="G22" s="8">
-        <v>0.71299999999999997</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H22" s="9">
-        <v>0.65400000000000003</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="I22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="10">
+        <v>6</v>
+      </c>
       <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="12">
@@ -1395,28 +1379,28 @@
         <v>19</v>
       </c>
       <c r="B23" s="4">
-        <v>39927.937931145832</v>
+        <v>39927.902167129629</v>
       </c>
       <c r="C23" s="5">
-        <v>-3.6</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="D23" s="5">
-        <v>2.7</v>
+        <v>-1</v>
       </c>
       <c r="E23" s="6">
-        <v>-0.64300000000000002</v>
+        <v>2.3391999999999999</v>
       </c>
       <c r="F23" s="7">
-        <v>998.38</v>
+        <v>999.66</v>
       </c>
       <c r="G23" s="8">
-        <v>-0.19600000000000001</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H23" s="9">
-        <v>-0.19500000000000001</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="I23" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="10"/>
@@ -1427,41 +1411,37 @@
       <c r="N23" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O23" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>20</v>
       </c>
       <c r="B24" s="4">
-        <v>39927.931424432871</v>
+        <v>39927.937931145832</v>
       </c>
       <c r="C24" s="5">
-        <v>7.5</v>
+        <v>-3.6</v>
       </c>
       <c r="D24" s="5">
-        <v>-7.2</v>
+        <v>2.7</v>
       </c>
       <c r="E24" s="6">
-        <v>-0.65290000000000004</v>
+        <v>-0.64300000000000002</v>
       </c>
       <c r="F24" s="7">
         <v>998.38</v>
       </c>
       <c r="G24" s="8">
-        <v>-0.19900000000000001</v>
+        <v>-0.19600000000000001</v>
       </c>
       <c r="H24" s="9">
-        <v>-0.19800000000000001</v>
+        <v>-0.19500000000000001</v>
       </c>
       <c r="I24" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J24" s="10">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10"/>
       <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="12">
@@ -1479,31 +1459,31 @@
         <v>21</v>
       </c>
       <c r="B25" s="4">
-        <v>39927.971305601852</v>
+        <v>39927.931424432871</v>
       </c>
       <c r="C25" s="5">
-        <v>4.9000000000000004</v>
+        <v>7.5</v>
       </c>
       <c r="D25" s="5">
-        <v>2.4</v>
+        <v>-7.2</v>
       </c>
       <c r="E25" s="6">
-        <v>-0.5151</v>
+        <v>-0.65290000000000004</v>
       </c>
       <c r="F25" s="7">
-        <v>998.44</v>
+        <v>998.38</v>
       </c>
       <c r="G25" s="8">
-        <v>-0.157</v>
+        <v>-0.19900000000000001</v>
       </c>
       <c r="H25" s="9">
-        <v>-0.156</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="I25" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J25" s="10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10"/>
@@ -1513,38 +1493,40 @@
       <c r="N25" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O25" s="11"/>
+      <c r="O25" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>22</v>
       </c>
       <c r="B26" s="4">
-        <v>39927.989318298612</v>
+        <v>39927.971305601852</v>
       </c>
       <c r="C26" s="5">
-        <v>-0.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D26" s="5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="E26" s="6">
-        <v>-2.3589000000000002</v>
+        <v>-0.5151</v>
       </c>
       <c r="F26" s="7">
-        <v>997.65</v>
+        <v>998.44</v>
       </c>
       <c r="G26" s="8">
-        <v>-0.71899999999999997</v>
+        <v>-0.157</v>
       </c>
       <c r="H26" s="9">
-        <v>-0.65900000000000003</v>
+        <v>-0.156</v>
       </c>
       <c r="I26" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J26" s="10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K26" s="10"/>
       <c r="L26" s="10"/>
@@ -1561,31 +1543,31 @@
         <v>23</v>
       </c>
       <c r="B27" s="4">
-        <v>39927.991667395836</v>
+        <v>39927.989318298612</v>
       </c>
       <c r="C27" s="5">
-        <v>-7.2</v>
+        <v>-0.9</v>
       </c>
       <c r="D27" s="5">
-        <v>-2.7</v>
+        <v>0</v>
       </c>
       <c r="E27" s="6">
-        <v>-2.8018000000000001</v>
+        <v>-2.3589000000000002</v>
       </c>
       <c r="F27" s="7">
-        <v>997.46</v>
+        <v>997.65</v>
       </c>
       <c r="G27" s="8">
-        <v>-0.85399999999999998</v>
+        <v>-0.71899999999999997</v>
       </c>
       <c r="H27" s="9">
-        <v>-0.754</v>
+        <v>-0.65900000000000003</v>
       </c>
       <c r="I27" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K27" s="10"/>
       <c r="L27" s="10"/>
@@ -1602,31 +1584,31 @@
         <v>24</v>
       </c>
       <c r="B28" s="4">
-        <v>39928.006851412036</v>
+        <v>39927.991667395836</v>
       </c>
       <c r="C28" s="5">
-        <v>-3.9</v>
+        <v>-7.2</v>
       </c>
       <c r="D28" s="5">
-        <v>-9.9</v>
+        <v>-2.7</v>
       </c>
       <c r="E28" s="6">
-        <v>0.91539999999999999</v>
+        <v>-2.8018000000000001</v>
       </c>
       <c r="F28" s="7">
-        <v>999.05</v>
+        <v>997.46</v>
       </c>
       <c r="G28" s="8">
-        <v>0.27900000000000003</v>
+        <v>-0.85399999999999998</v>
       </c>
       <c r="H28" s="9">
-        <v>0.27500000000000002</v>
+        <v>-0.754</v>
       </c>
       <c r="I28" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="10"/>
@@ -1636,40 +1618,38 @@
       <c r="N28" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O28" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>25</v>
       </c>
       <c r="B29" s="4">
-        <v>39928.029524016201</v>
+        <v>39928.006851412036</v>
       </c>
       <c r="C29" s="5">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="D29" s="5">
-        <v>9.4</v>
+        <v>-9.9</v>
       </c>
       <c r="E29" s="6">
-        <v>1.8481000000000001</v>
+        <v>0.91539999999999999</v>
       </c>
       <c r="F29" s="7">
-        <v>999.45</v>
+        <v>999.05</v>
       </c>
       <c r="G29" s="8">
-        <v>0.56330000000000002</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="H29" s="9">
-        <v>0.53400000000000003</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="I29" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J29" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K29" s="10"/>
       <c r="L29" s="10"/>
@@ -1679,38 +1659,40 @@
       <c r="N29" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O29" s="11"/>
+      <c r="O29" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>26</v>
       </c>
       <c r="B30" s="4">
-        <v>39928.053715312497</v>
+        <v>39928.029524016201</v>
       </c>
       <c r="C30" s="5">
-        <v>-5.4</v>
+        <v>-3.7</v>
       </c>
       <c r="D30" s="5">
-        <v>2.2000000000000002</v>
+        <v>9.4</v>
       </c>
       <c r="E30" s="6">
-        <v>0.94489999999999996</v>
+        <v>1.8481000000000001</v>
       </c>
       <c r="F30" s="7">
-        <v>999.06</v>
+        <v>999.45</v>
       </c>
       <c r="G30" s="8">
-        <v>0.28799999999999998</v>
+        <v>0.56330000000000002</v>
       </c>
       <c r="H30" s="9">
-        <v>0.28399999999999997</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="I30" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J30" s="10">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K30" s="10"/>
       <c r="L30" s="10"/>
@@ -1727,31 +1709,31 @@
         <v>27</v>
       </c>
       <c r="B31" s="4">
-        <v>39928.091740520831</v>
+        <v>39928.053715312497</v>
       </c>
       <c r="C31" s="5">
-        <v>-4.2</v>
+        <v>-5.4</v>
       </c>
       <c r="D31" s="5">
-        <v>-1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E31" s="6">
-        <v>-1.7257</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="F31" s="7">
-        <v>997.92</v>
+        <v>999.06</v>
       </c>
       <c r="G31" s="8">
-        <v>-0.52600000000000002</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="H31" s="9">
-        <v>-0.502</v>
+        <v>0.28399999999999997</v>
       </c>
       <c r="I31" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K31" s="10"/>
       <c r="L31" s="10"/>
@@ -1761,40 +1743,38 @@
       <c r="N31" s="13">
         <v>0.49965277777777778</v>
       </c>
-      <c r="O31" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
         <v>28</v>
       </c>
       <c r="B32" s="4">
-        <v>39928.127237534725</v>
+        <v>39928.091740520831</v>
       </c>
       <c r="C32" s="5">
-        <v>-0.3</v>
+        <v>-4.2</v>
       </c>
       <c r="D32" s="5">
-        <v>5.7</v>
+        <v>-1.5</v>
       </c>
       <c r="E32" s="6">
-        <v>-0.97440000000000004</v>
+        <v>-1.7257</v>
       </c>
       <c r="F32" s="7">
-        <v>998.24</v>
+        <v>997.92</v>
       </c>
       <c r="G32" s="8">
-        <v>-0.29699999999999999</v>
+        <v>-0.52600000000000002</v>
       </c>
       <c r="H32" s="9">
-        <v>-0.29299999999999998</v>
+        <v>-0.502</v>
       </c>
       <c r="I32" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J32" s="10">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K32" s="10"/>
       <c r="L32" s="10"/>
@@ -1802,40 +1782,42 @@
         <v>39680</v>
       </c>
       <c r="N32" s="13">
-        <v>0.50118055555555563</v>
-      </c>
-      <c r="O32" s="11"/>
+        <v>0.49965277777777778</v>
+      </c>
+      <c r="O32" s="11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
         <v>29</v>
       </c>
       <c r="B33" s="4">
-        <v>39928.161209606478</v>
+        <v>39928.127237534725</v>
       </c>
       <c r="C33" s="5">
-        <v>-7.8</v>
+        <v>-0.3</v>
       </c>
       <c r="D33" s="5">
-        <v>-9.6999999999999993</v>
+        <v>5.7</v>
       </c>
       <c r="E33" s="6">
-        <v>-2.7067000000000001</v>
+        <v>-0.97440000000000004</v>
       </c>
       <c r="F33" s="7">
-        <v>997.5</v>
+        <v>998.24</v>
       </c>
       <c r="G33" s="8">
-        <v>-0.82499999999999996</v>
+        <v>-0.29699999999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>-0.73499999999999999</v>
+        <v>-0.29299999999999998</v>
       </c>
       <c r="I33" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J33" s="10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="10"/>
@@ -1852,31 +1834,31 @@
         <v>30</v>
       </c>
       <c r="B34" s="4">
-        <v>39928.170371261571</v>
+        <v>39928.161209606478</v>
       </c>
       <c r="C34" s="5">
-        <v>2.4</v>
+        <v>-7.8</v>
       </c>
       <c r="D34" s="5">
-        <v>9.4</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="E34" s="6">
-        <v>0.45279999999999998</v>
+        <v>-2.7067000000000001</v>
       </c>
       <c r="F34" s="7">
-        <v>998.85</v>
+        <v>997.5</v>
       </c>
       <c r="G34" s="8">
-        <v>0.13800000000000001</v>
+        <v>-0.82499999999999996</v>
       </c>
       <c r="H34" s="9">
-        <v>0.13800000000000001</v>
+        <v>-0.73499999999999999</v>
       </c>
       <c r="I34" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J34" s="10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
@@ -1893,31 +1875,31 @@
         <v>31</v>
       </c>
       <c r="B35" s="4">
-        <v>39928.173794664355</v>
+        <v>39928.170371261571</v>
       </c>
       <c r="C35" s="5">
-        <v>9.3000000000000007</v>
+        <v>2.4</v>
       </c>
       <c r="D35" s="5">
-        <v>-5.0999999999999996</v>
+        <v>9.4</v>
       </c>
       <c r="E35" s="6">
-        <v>-0.77759999999999996</v>
+        <v>0.45279999999999998</v>
       </c>
       <c r="F35" s="7">
-        <v>998.32</v>
+        <v>998.85</v>
       </c>
       <c r="G35" s="8">
-        <v>-0.23699999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="H35" s="9">
-        <v>-0.23499999999999999</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="I35" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K35" s="10"/>
       <c r="L35" s="10"/>
@@ -1934,31 +1916,31 @@
         <v>32</v>
       </c>
       <c r="B36" s="4">
-        <v>39928.207542719909</v>
+        <v>39928.173794664355</v>
       </c>
       <c r="C36" s="5">
-        <v>-9.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="D36" s="5">
-        <v>2.5</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="E36" s="6">
-        <v>2.7231000000000001</v>
+        <v>-0.77759999999999996</v>
       </c>
       <c r="F36" s="7">
-        <v>999.82</v>
+        <v>998.32</v>
       </c>
       <c r="G36" s="8">
-        <v>0.83</v>
+        <v>-0.23699999999999999</v>
       </c>
       <c r="H36" s="9">
-        <v>0.73799999999999999</v>
+        <v>-0.23499999999999999</v>
       </c>
       <c r="I36" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
@@ -1975,31 +1957,31 @@
         <v>33</v>
       </c>
       <c r="B37" s="4">
-        <v>39928.21937136574</v>
+        <v>39928.207542719909</v>
       </c>
       <c r="C37" s="5">
-        <v>-7</v>
+        <v>-9.6</v>
       </c>
       <c r="D37" s="5">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="E37" s="6">
-        <v>-1.2402</v>
+        <v>2.7231000000000001</v>
       </c>
       <c r="F37" s="7">
-        <v>998.13</v>
+        <v>999.82</v>
       </c>
       <c r="G37" s="8">
-        <v>-0.378</v>
+        <v>0.83</v>
       </c>
       <c r="H37" s="9">
-        <v>-0.36899999999999999</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="I37" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J37" s="10">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K37" s="10"/>
       <c r="L37" s="10"/>
@@ -2016,31 +1998,31 @@
         <v>34</v>
       </c>
       <c r="B38" s="4">
-        <v>39928.253159837965</v>
+        <v>39928.21937136574</v>
       </c>
       <c r="C38" s="5">
-        <v>6.8</v>
+        <v>-7</v>
       </c>
       <c r="D38" s="5">
-        <v>-1.5</v>
+        <v>3.6</v>
       </c>
       <c r="E38" s="6">
-        <v>-1.0138</v>
+        <v>-1.2402</v>
       </c>
       <c r="F38" s="7">
-        <v>998.22</v>
+        <v>998.13</v>
       </c>
       <c r="G38" s="8">
-        <v>-0.309</v>
+        <v>-0.378</v>
       </c>
       <c r="H38" s="9">
-        <v>-0.30399999999999999</v>
+        <v>-0.36899999999999999</v>
       </c>
       <c r="I38" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J38" s="10">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K38" s="10"/>
       <c r="L38" s="10"/>
@@ -2057,31 +2039,31 @@
         <v>35</v>
       </c>
       <c r="B39" s="4">
-        <v>39928.278174606479</v>
+        <v>39928.253159837965</v>
       </c>
       <c r="C39" s="5">
-        <v>-7.9</v>
+        <v>6.8</v>
       </c>
       <c r="D39" s="5">
-        <v>-8.6999999999999993</v>
+        <v>-1.5</v>
       </c>
       <c r="E39" s="6">
-        <v>3.1463000000000001</v>
+        <v>-1.0138</v>
       </c>
       <c r="F39" s="7">
-        <v>1000</v>
+        <v>998.22</v>
       </c>
       <c r="G39" s="8">
-        <v>0.95899999999999996</v>
+        <v>-0.309</v>
       </c>
       <c r="H39" s="9">
-        <v>0.81899999999999995</v>
+        <v>-0.30399999999999999</v>
       </c>
       <c r="I39" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J39" s="10">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="K39" s="10"/>
       <c r="L39" s="10"/>
@@ -2098,28 +2080,28 @@
         <v>36</v>
       </c>
       <c r="B40" s="4">
-        <v>39928.295571504626</v>
+        <v>39928.278174606479</v>
       </c>
       <c r="C40" s="5">
-        <v>6.7</v>
+        <v>-7.9</v>
       </c>
       <c r="D40" s="5">
-        <v>-3.8</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="E40" s="6">
-        <v>-2.5427</v>
+        <v>3.1463000000000001</v>
       </c>
       <c r="F40" s="7">
-        <v>997.57</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="8">
-        <v>-0.77500000000000002</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="H40" s="9">
-        <v>-0.7</v>
+        <v>0.81899999999999995</v>
       </c>
       <c r="I40" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" s="10">
         <v>3</v>
@@ -2139,31 +2121,31 @@
         <v>37</v>
       </c>
       <c r="B41" s="4">
-        <v>39928.308560393518</v>
+        <v>39928.295571504626</v>
       </c>
       <c r="C41" s="5">
-        <v>-1.8</v>
+        <v>6.7</v>
       </c>
       <c r="D41" s="5">
-        <v>-6.9</v>
+        <v>-3.8</v>
       </c>
       <c r="E41" s="6">
-        <v>2.1587999999999998</v>
+        <v>-2.5427</v>
       </c>
       <c r="F41" s="7">
-        <v>999.58</v>
+        <v>997.57</v>
       </c>
       <c r="G41" s="8">
-        <v>0.65800000000000003</v>
+        <v>-0.77500000000000002</v>
       </c>
       <c r="H41" s="9">
-        <v>0.61199999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="I41" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" s="10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" s="10"/>
       <c r="L41" s="10"/>
@@ -2173,40 +2155,38 @@
       <c r="N41" s="13">
         <v>0.50118055555555563</v>
       </c>
-      <c r="O41" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
         <v>38</v>
       </c>
       <c r="B42" s="4">
-        <v>39928.336021030096</v>
+        <v>39928.308560393518</v>
       </c>
       <c r="C42" s="5">
-        <v>-1.3</v>
+        <v>-1.8</v>
       </c>
       <c r="D42" s="5">
-        <v>1.4</v>
+        <v>-6.9</v>
       </c>
       <c r="E42" s="6">
-        <v>-1.7946</v>
+        <v>2.1587999999999998</v>
       </c>
       <c r="F42" s="7">
-        <v>997.89</v>
+        <v>999.58</v>
       </c>
       <c r="G42" s="8">
-        <v>-0.54700000000000004</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="H42" s="9">
-        <v>-0.52</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="I42" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="10"/>
       <c r="L42" s="10"/>
@@ -2216,38 +2196,40 @@
       <c r="N42" s="13">
         <v>0.50118055555555563</v>
       </c>
-      <c r="O42" s="11"/>
+      <c r="O42" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
         <v>39</v>
       </c>
       <c r="B43" s="4">
-        <v>39928.340065474535</v>
+        <v>39928.336021030096</v>
       </c>
       <c r="C43" s="5">
-        <v>-1.5</v>
+        <v>-1.3</v>
       </c>
       <c r="D43" s="5">
-        <v>-8.3000000000000007</v>
+        <v>1.4</v>
       </c>
       <c r="E43" s="6">
-        <v>-2.7887</v>
+        <v>-1.7946</v>
       </c>
       <c r="F43" s="7">
-        <v>997.46</v>
+        <v>997.89</v>
       </c>
       <c r="G43" s="8">
-        <v>-0.85</v>
+        <v>-0.54700000000000004</v>
       </c>
       <c r="H43" s="9">
-        <v>-0.751</v>
+        <v>-0.52</v>
       </c>
       <c r="I43" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" s="10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K43" s="10"/>
       <c r="L43" s="10"/>
@@ -2264,31 +2246,31 @@
         <v>40</v>
       </c>
       <c r="B44" s="4">
-        <v>39928.357899502313</v>
+        <v>39928.340065474535</v>
       </c>
       <c r="C44" s="5">
-        <v>6</v>
+        <v>-1.5</v>
       </c>
       <c r="D44" s="5">
-        <v>-2.5</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="E44" s="6">
-        <v>1.2139</v>
+        <v>-2.7887</v>
       </c>
       <c r="F44" s="7">
-        <v>999.17</v>
+        <v>997.46</v>
       </c>
       <c r="G44" s="8">
-        <v>0.37</v>
+        <v>-0.85</v>
       </c>
       <c r="H44" s="9">
-        <v>0.36199999999999999</v>
+        <v>-0.751</v>
       </c>
       <c r="I44" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J44" s="10">
-        <v>-15</v>
+        <v>4</v>
       </c>
       <c r="K44" s="10"/>
       <c r="L44" s="10"/>
@@ -2296,7 +2278,7 @@
         <v>39680</v>
       </c>
       <c r="N44" s="13">
-        <v>0.50274305555555554</v>
+        <v>0.50118055555555563</v>
       </c>
       <c r="O44" s="11"/>
     </row>
@@ -2305,31 +2287,31 @@
         <v>41</v>
       </c>
       <c r="B45" s="4">
-        <v>39928.360654328702</v>
+        <v>39928.357899502313</v>
       </c>
       <c r="C45" s="5">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="D45" s="5">
-        <v>-3.1</v>
+        <v>-2.5</v>
       </c>
       <c r="E45" s="6">
-        <v>-1.7847999999999999</v>
+        <v>1.2139</v>
       </c>
       <c r="F45" s="7">
-        <v>997.89</v>
+        <v>999.17</v>
       </c>
       <c r="G45" s="8">
-        <v>-0.54400000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="H45" s="9">
-        <v>-0.51800000000000002</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="I45" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J45" s="10">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="K45" s="10"/>
       <c r="L45" s="10"/>
@@ -2346,31 +2328,31 @@
         <v>42</v>
       </c>
       <c r="B46" s="4">
-        <v>39928.37177189815</v>
+        <v>39928.360654328702</v>
       </c>
       <c r="C46" s="5">
-        <v>1.1000000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="D46" s="5">
-        <v>9.4</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>6</v>
+        <v>-3.1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>-1.7847999999999999</v>
+      </c>
+      <c r="F46" s="7">
+        <v>997.89</v>
+      </c>
+      <c r="G46" s="8">
+        <v>-0.54400000000000004</v>
       </c>
       <c r="H46" s="9">
-        <v>2.9000000000000001E-2</v>
+        <v>-0.51800000000000002</v>
       </c>
       <c r="I46" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J46" s="10">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="K46" s="10"/>
       <c r="L46" s="10"/>
@@ -2387,31 +2369,31 @@
         <v>43</v>
       </c>
       <c r="B47" s="4">
-        <v>39928.392144108795</v>
+        <v>39928.37177189815</v>
       </c>
       <c r="C47" s="5">
-        <v>-5.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D47" s="5">
-        <v>-8.6</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1.1286</v>
-      </c>
-      <c r="F47" s="7">
-        <v>999.14</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0.34399999999999997</v>
+        <v>9.4</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="H47" s="9">
-        <v>0.33700000000000002</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="I47" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J47" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K47" s="10"/>
       <c r="L47" s="10"/>
@@ -2421,34 +2403,32 @@
       <c r="N47" s="13">
         <v>0.50274305555555554</v>
       </c>
-      <c r="O47" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
         <v>44</v>
       </c>
       <c r="B48" s="4">
-        <v>39928.404279895833</v>
+        <v>39928.392144108795</v>
       </c>
       <c r="C48" s="5">
-        <v>-2.2999999999999998</v>
+        <v>-5.2</v>
       </c>
       <c r="D48" s="5">
-        <v>4.0999999999999996</v>
+        <v>-8.6</v>
       </c>
       <c r="E48" s="6">
-        <v>-0.9708</v>
+        <v>1.1286</v>
       </c>
       <c r="F48" s="7">
-        <v>998.24</v>
+        <v>999.14</v>
       </c>
       <c r="G48" s="8">
-        <v>-0.2959</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="H48" s="9">
-        <v>-0.29199999999999998</v>
+        <v>0.33700000000000002</v>
       </c>
       <c r="I48" s="10" t="b">
         <v>1</v>
@@ -2464,35 +2444,37 @@
       <c r="N48" s="13">
         <v>0.50274305555555554</v>
       </c>
-      <c r="O48" s="11"/>
+      <c r="O48" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
         <v>45</v>
       </c>
       <c r="B49" s="4">
-        <v>39928.407071585651</v>
+        <v>39928.404279895833</v>
       </c>
       <c r="C49" s="5">
-        <v>8.1</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D49" s="5">
-        <v>-0.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E49" s="6">
-        <v>1.5584</v>
+        <v>-0.9708</v>
       </c>
       <c r="F49" s="7">
-        <v>999.32</v>
+        <v>998.24</v>
       </c>
       <c r="G49" s="8">
-        <v>0.47499999999999998</v>
+        <v>-0.2959</v>
       </c>
       <c r="H49" s="9">
-        <v>0.45700000000000002</v>
+        <v>-0.29199999999999998</v>
       </c>
       <c r="I49" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="10">
         <v>1</v>
@@ -2512,31 +2494,31 @@
         <v>46</v>
       </c>
       <c r="B50" s="4">
-        <v>39928.442570277781</v>
+        <v>39928.407071585651</v>
       </c>
       <c r="C50" s="5">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="D50" s="5">
-        <v>5.7</v>
+        <v>-0.6</v>
       </c>
       <c r="E50" s="6">
-        <v>2.0308000000000002</v>
+        <v>1.5584</v>
       </c>
       <c r="F50" s="7">
-        <v>999.52</v>
+        <v>999.32</v>
       </c>
       <c r="G50" s="8">
-        <v>0.61899999999999999</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="H50" s="9">
-        <v>0.57999999999999996</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="I50" s="10" t="b">
         <v>0</v>
       </c>
       <c r="J50" s="10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K50" s="10"/>
       <c r="L50" s="10"/>
@@ -2546,40 +2528,38 @@
       <c r="N50" s="13">
         <v>0.50274305555555554</v>
       </c>
-      <c r="O50" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
         <v>47</v>
       </c>
       <c r="B51" s="4">
-        <v>39928.446294409725</v>
+        <v>39928.442570277781</v>
       </c>
       <c r="C51" s="5">
-        <v>-1.4</v>
+        <v>7.5</v>
       </c>
       <c r="D51" s="5">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="E51" s="6">
-        <v>0.25919999999999999</v>
+        <v>2.0308000000000002</v>
       </c>
       <c r="F51" s="7">
-        <v>998.77</v>
+        <v>999.52</v>
       </c>
       <c r="G51" s="8">
-        <v>7.9000000000000001E-2</v>
+        <v>0.61899999999999999</v>
       </c>
       <c r="H51" s="9">
-        <v>7.8899999999999998E-2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I51" s="10" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K51" s="10"/>
       <c r="L51" s="10"/>
@@ -2590,7 +2570,7 @@
         <v>0.50274305555555554</v>
       </c>
       <c r="O51" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -2598,31 +2578,31 @@
         <v>48</v>
       </c>
       <c r="B52" s="4">
-        <v>39928.487169236112</v>
+        <v>39928.446294409725</v>
       </c>
       <c r="C52" s="5">
-        <v>5.8</v>
+        <v>-1.4</v>
       </c>
       <c r="D52" s="5">
-        <v>-6.6</v>
+        <v>0</v>
       </c>
       <c r="E52" s="6">
-        <v>0.2329</v>
+        <v>0.25919999999999999</v>
       </c>
       <c r="F52" s="7">
-        <v>998.76</v>
+        <v>998.77</v>
       </c>
       <c r="G52" s="8">
-        <v>7.0999999999999994E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
       <c r="H52" s="9">
-        <v>7.0900000000000005E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="I52" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="10"/>
       <c r="L52" s="10"/>
@@ -2632,38 +2612,40 @@
       <c r="N52" s="13">
         <v>0.50274305555555554</v>
       </c>
-      <c r="O52" s="11"/>
+      <c r="O52" s="11" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
         <v>49</v>
       </c>
       <c r="B53" s="4">
-        <v>39928.518024826386</v>
+        <v>39928.487169236112</v>
       </c>
       <c r="C53" s="5">
-        <v>1.5</v>
+        <v>5.8</v>
       </c>
       <c r="D53" s="5">
-        <v>-5</v>
+        <v>-6.6</v>
       </c>
       <c r="E53" s="6">
-        <v>-2.9790000000000001</v>
+        <v>0.2329</v>
       </c>
       <c r="F53" s="7">
-        <v>997.38</v>
+        <v>998.76</v>
       </c>
       <c r="G53" s="8">
-        <v>-0.90800000000000003</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="H53" s="9">
-        <v>-0.78800000000000003</v>
+        <v>7.0900000000000005E-2</v>
       </c>
       <c r="I53" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="10"/>
@@ -2680,31 +2662,31 @@
         <v>50</v>
       </c>
       <c r="B54" s="4">
-        <v>39928.53297951389</v>
+        <v>39928.518024826386</v>
       </c>
       <c r="C54" s="5">
-        <v>-6.4</v>
+        <v>1.5</v>
       </c>
       <c r="D54" s="5">
-        <v>-7.3</v>
+        <v>-5</v>
       </c>
       <c r="E54" s="6">
-        <v>-2.3359999999999999</v>
+        <v>-2.9790000000000001</v>
       </c>
       <c r="F54" s="7">
-        <v>997.66</v>
+        <v>997.38</v>
       </c>
       <c r="G54" s="8">
-        <v>-0.71199999999999997</v>
+        <v>-0.90800000000000003</v>
       </c>
       <c r="H54" s="9">
-        <v>-0.65300000000000002</v>
+        <v>-0.78800000000000003</v>
       </c>
       <c r="I54" s="10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54" s="10">
-        <v>-13</v>
+        <v>3</v>
       </c>
       <c r="K54" s="10"/>
       <c r="L54" s="10"/>
@@ -2712,13 +2694,50 @@
         <v>39680</v>
       </c>
       <c r="N54" s="13">
+        <v>0.50274305555555554</v>
+      </c>
+      <c r="O54" s="11"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>51</v>
+      </c>
+      <c r="B55" s="4">
+        <v>39928.53297951389</v>
+      </c>
+      <c r="C55" s="5">
+        <v>-6.4</v>
+      </c>
+      <c r="D55" s="5">
+        <v>-7.3</v>
+      </c>
+      <c r="E55" s="6">
+        <v>-2.3359999999999999</v>
+      </c>
+      <c r="F55" s="7">
+        <v>997.66</v>
+      </c>
+      <c r="G55" s="8">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="H55" s="9">
+        <v>-0.65300000000000002</v>
+      </c>
+      <c r="I55" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" s="10">
+        <v>-13</v>
+      </c>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="12">
+        <v>39680</v>
+      </c>
+      <c r="N55" s="13">
         <v>0.54167824074074067</v>
       </c>
-      <c r="O54" s="11"/>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="M55" s="14"/>
-      <c r="N55" s="15"/>
+      <c r="O55" s="11"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M56" s="14"/>
@@ -2731,6 +2750,10 @@
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M58" s="14"/>
       <c r="N58" s="15"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -504,7 +504,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -524,75 +526,75 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">

--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -89,10 +89,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -157,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +193,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -505,7 +509,7 @@
   <dimension ref="A2:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,8 +1309,8 @@
       <c r="D21" s="4">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="E21" s="5">
-        <v>2.2867000000000002</v>
+      <c r="E21" s="19">
+        <v>3.1415929999999999</v>
       </c>
       <c r="F21" s="6">
         <v>999.63</v>

--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>T POSIXct</t>
-  </si>
-  <si>
-    <t>%m/%d/%Y %H:%M:%OS</t>
   </si>
   <si>
     <t>Character</t>
@@ -84,6 +81,9 @@
   <si>
     <t>Time character</t>
   </si>
+  <si>
+    <t>%m/%d/%Y %H:%M:%OS3</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,7 +194,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -508,14 +508,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -531,34 +529,34 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -566,39 +564,39 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="O3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">

--- a/inst/extdata/DataExample.xlsx
+++ b/inst/extdata/DataExample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="22">
   <si>
     <t>A1</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>%5.1f</t>
-  </si>
-  <si>
-    <t>%.3f</t>
   </si>
   <si>
     <t>%.2f</t>
@@ -82,7 +79,7 @@
     <t>Time character</t>
   </si>
   <si>
-    <t>%m/%d/%Y %H:%M:%OS3</t>
+    <t>%m/%d/%Y %H:%M:%OS2</t>
   </si>
 </sst>
 </file>
@@ -93,7 +90,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy\ hh:mm:ss.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -194,9 +191,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,7 +509,7 @@
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -529,7 +524,7 @@
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -541,22 +536,22 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -564,36 +559,36 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>8</v>
@@ -733,8 +728,8 @@
       <c r="B7" s="3">
         <v>39927.535409918979</v>
       </c>
-      <c r="C7" s="4">
-        <v>3.7</v>
+      <c r="C7" s="19">
+        <v>3.14159265358979</v>
       </c>
       <c r="D7" s="4">
         <v>-2.2999999999999998</v>
@@ -835,7 +830,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="H9" s="8">
-        <v>4.2999999999999997E-2</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="I9" s="9" t="b">
         <v>1</v>
@@ -846,7 +841,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="11">
-        <v>39680</v>
+        <v>39681</v>
       </c>
       <c r="N9" s="12">
         <v>0.49805555555555553</v>
@@ -887,7 +882,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="11">
-        <v>39680</v>
+        <v>39682</v>
       </c>
       <c r="N10" s="12">
         <v>0.49805555555555553</v>
@@ -930,7 +925,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="11">
-        <v>39680</v>
+        <v>39683</v>
       </c>
       <c r="N11" s="12">
         <v>0.49805555555555553</v>
@@ -971,7 +966,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="11">
-        <v>39680</v>
+        <v>39684</v>
       </c>
       <c r="N12" s="12">
         <v>0.49805555555555553</v>
@@ -1001,7 +996,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="8">
-        <v>2.9000000000000001E-2</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="I13" s="9" t="b">
         <v>0</v>
@@ -1012,7 +1007,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="11">
-        <v>39680</v>
+        <v>39685</v>
       </c>
       <c r="N13" s="12">
         <v>0.49805555555555553</v>
@@ -1055,7 +1050,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="11">
-        <v>39680</v>
+        <v>39686</v>
       </c>
       <c r="N14" s="12">
         <v>0.49805555555555553</v>
@@ -1096,7 +1091,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="11">
-        <v>39680</v>
+        <v>39687</v>
       </c>
       <c r="N15" s="12">
         <v>0.49805555555555553</v>
@@ -1139,7 +1134,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="11">
-        <v>39680</v>
+        <v>39688</v>
       </c>
       <c r="N16" s="12">
         <v>0.49805555555555553</v>
@@ -1182,7 +1177,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="11">
-        <v>39680</v>
+        <v>39689</v>
       </c>
       <c r="N17" s="12">
         <v>0.49805555555555553</v>
@@ -1225,7 +1220,7 @@
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="11">
-        <v>39680</v>
+        <v>39690</v>
       </c>
       <c r="N18" s="12">
         <v>0.49805555555555553</v>
@@ -1266,7 +1261,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="11">
-        <v>39680</v>
+        <v>39691</v>
       </c>
       <c r="N19" s="12">
         <v>0.49965277777777778</v>
@@ -1307,7 +1302,7 @@
       <c r="D21" s="4">
         <v>-9.8000000000000007</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="5">
         <v>3.1415929999999999</v>
       </c>
       <c r="F21" s="6">
@@ -1328,7 +1323,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="11">
-        <v>39680</v>
+        <v>39692</v>
       </c>
       <c r="N21" s="12">
         <v>0.49965277777777778</v>
@@ -1367,7 +1362,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="11">
-        <v>39680</v>
+        <v>39693</v>
       </c>
       <c r="N22" s="12">
         <v>0.49965277777777778</v>
@@ -1406,7 +1401,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="11">
-        <v>39680</v>
+        <v>39694</v>
       </c>
       <c r="N23" s="12">
         <v>0.49965277777777778</v>
@@ -1449,7 +1444,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="11">
-        <v>39680</v>
+        <v>39695</v>
       </c>
       <c r="N24" s="12">
         <v>0.49965277777777778</v>
@@ -1492,7 +1487,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="11">
-        <v>39680</v>
+        <v>39696</v>
       </c>
       <c r="N25" s="12">
         <v>0.49965277777777778</v>
@@ -1533,7 +1528,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="11">
-        <v>39680</v>
+        <v>39697</v>
       </c>
       <c r="N26" s="12">
         <v>0.49965277777777778</v>
@@ -1563,7 +1558,7 @@
         <v>-0.85399999999999998</v>
       </c>
       <c r="H27" s="8">
-        <v>-0.754</v>
+        <v>-7.54E-7</v>
       </c>
       <c r="I27" s="9" t="b">
         <v>0</v>
@@ -1574,7 +1569,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="11">
-        <v>39680</v>
+        <v>39698</v>
       </c>
       <c r="N27" s="12">
         <v>0.49965277777777778</v>
@@ -1615,7 +1610,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="11">
-        <v>39680</v>
+        <v>39699</v>
       </c>
       <c r="N28" s="12">
         <v>0.49965277777777778</v>
@@ -1658,7 +1653,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
       <c r="M29" s="11">
-        <v>39680</v>
+        <v>39700</v>
       </c>
       <c r="N29" s="12">
         <v>0.49965277777777778</v>
@@ -1699,7 +1694,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
       <c r="M30" s="11">
-        <v>39680</v>
+        <v>39701</v>
       </c>
       <c r="N30" s="12">
         <v>0.49965277777777778</v>
@@ -1740,7 +1735,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
       <c r="M31" s="11">
-        <v>39680</v>
+        <v>39702</v>
       </c>
       <c r="N31" s="12">
         <v>0.49965277777777778</v>
@@ -1783,7 +1778,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="11">
-        <v>39680</v>
+        <v>39703</v>
       </c>
       <c r="N32" s="12">
         <v>0.50118055555555563</v>
@@ -1824,7 +1819,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="11">
-        <v>39680</v>
+        <v>39704</v>
       </c>
       <c r="N33" s="12">
         <v>0.50118055555555563</v>
@@ -1865,7 +1860,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
       <c r="M34" s="11">
-        <v>39680</v>
+        <v>39705</v>
       </c>
       <c r="N34" s="12">
         <v>0.50118055555555563</v>
@@ -1906,7 +1901,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
       <c r="M35" s="11">
-        <v>39680</v>
+        <v>39706</v>
       </c>
       <c r="N35" s="12">
         <v>0.50118055555555563</v>
@@ -1947,7 +1942,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="11">
-        <v>39680</v>
+        <v>39707</v>
       </c>
       <c r="N36" s="12">
         <v>0.50118055555555563</v>
@@ -1988,7 +1983,7 @@
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
       <c r="M37" s="11">
-        <v>39680</v>
+        <v>39708</v>
       </c>
       <c r="N37" s="12">
         <v>0.50118055555555563</v>
@@ -2029,7 +2024,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="11">
-        <v>39680</v>
+        <v>39709</v>
       </c>
       <c r="N38" s="12">
         <v>0.50118055555555563</v>
@@ -2070,7 +2065,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
       <c r="M39" s="11">
-        <v>39680</v>
+        <v>39710</v>
       </c>
       <c r="N39" s="12">
         <v>0.50118055555555563</v>
@@ -2111,7 +2106,7 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="11">
-        <v>39680</v>
+        <v>39711</v>
       </c>
       <c r="N40" s="12">
         <v>0.50118055555555563</v>
@@ -2152,7 +2147,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="11">
-        <v>39680</v>
+        <v>39712</v>
       </c>
       <c r="N41" s="12">
         <v>0.50118055555555563</v>
@@ -2195,7 +2190,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="11">
-        <v>39680</v>
+        <v>39713</v>
       </c>
       <c r="N42" s="12">
         <v>0.50118055555555563</v>
@@ -2236,7 +2231,7 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="11">
-        <v>39680</v>
+        <v>39714</v>
       </c>
       <c r="N43" s="12">
         <v>0.50118055555555563</v>
@@ -2277,7 +2272,7 @@
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
       <c r="M44" s="11">
-        <v>39680</v>
+        <v>39715</v>
       </c>
       <c r="N44" s="12">
         <v>0.50274305555555554</v>
@@ -2318,7 +2313,7 @@
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
       <c r="M45" s="11">
-        <v>39680</v>
+        <v>39716</v>
       </c>
       <c r="N45" s="12">
         <v>0.50274305555555554</v>
@@ -2359,7 +2354,7 @@
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
       <c r="M46" s="11">
-        <v>39680</v>
+        <v>39717</v>
       </c>
       <c r="N46" s="12">
         <v>0.50274305555555554</v>
@@ -2400,7 +2395,7 @@
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
       <c r="M47" s="11">
-        <v>39680</v>
+        <v>39718</v>
       </c>
       <c r="N47" s="12">
         <v>0.50274305555555554</v>
@@ -2443,7 +2438,7 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="11">
-        <v>39680</v>
+        <v>39719</v>
       </c>
       <c r="N48" s="12">
         <v>0.50274305555555554</v>
@@ -2484,7 +2479,7 @@
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
       <c r="M49" s="11">
-        <v>39680</v>
+        <v>39720</v>
       </c>
       <c r="N49" s="12">
         <v>0.50274305555555554</v>
@@ -2525,7 +2520,7 @@
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
       <c r="M50" s="11">
-        <v>39680</v>
+        <v>39721</v>
       </c>
       <c r="N50" s="12">
         <v>0.50274305555555554</v>
@@ -2568,7 +2563,7 @@
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
       <c r="M51" s="11">
-        <v>39680</v>
+        <v>39722</v>
       </c>
       <c r="N51" s="12">
         <v>0.50274305555555554</v>
@@ -2611,7 +2606,7 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="11">
-        <v>39680</v>
+        <v>39723</v>
       </c>
       <c r="N52" s="12">
         <v>0.50274305555555554</v>
@@ -2652,7 +2647,7 @@
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
       <c r="M53" s="11">
-        <v>39680</v>
+        <v>39724</v>
       </c>
       <c r="N53" s="12">
         <v>0.50274305555555554</v>
@@ -2693,7 +2688,7 @@
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
       <c r="M54" s="11">
-        <v>39680</v>
+        <v>39725</v>
       </c>
       <c r="N54" s="12">
         <v>0.54167824074074067</v>
